--- a/biology/Botanique/Vallon_du_Vuylbeek/Vallon_du_Vuylbeek.xlsx
+++ b/biology/Botanique/Vallon_du_Vuylbeek/Vallon_du_Vuylbeek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le vallon du Vuylbeek (en néerlandais: Vallei van de Vuilbeek) est une réserve naturelle en forêt de Soignes qui se trouve juste à côté de celui des Enfants Noyés[1].
+Le vallon du Vuylbeek (en néerlandais: Vallei van de Vuilbeek) est une réserve naturelle en forêt de Soignes qui se trouve juste à côté de celui des Enfants Noyés.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Archéologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des traces archéologiques d’établissements humains, haches de pierre, pointes de flèches, grattoirs, percuteurs, ainsi que des vases sphériques à col évasé (conservés aux Musées royaux d'art et d'histoire) datant de 3 000 à 2 200 ans av. J.-C. ont été découverts entre le vallon des Enfants Noyés et le vallon du Vuylbeek[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des traces archéologiques d’établissements humains, haches de pierre, pointes de flèches, grattoirs, percuteurs, ainsi que des vases sphériques à col évasé (conservés aux Musées royaux d'art et d'histoire) datant de 3 000 à 2 200 ans av. J.-C. ont été découverts entre le vallon des Enfants Noyés et le vallon du Vuylbeek.
 			Zone archéologique entre le vallon des Enfants Noyés et le vallon du Vuylbeek
 </t>
         </is>
